--- a/data/common/excel/products_public_categories_odoo.xlsx
+++ b/data/common/excel/products_public_categories_odoo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\OPT Design\PycharmProjects\optima-scrapper\data\common\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8B093C-238A-45C6-B825-639E52FD3F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EC3BC0-3D75-41A6-97C1-684300927D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14199" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14199" uniqueCount="275">
   <si>
     <t>SKU</t>
   </si>
@@ -777,9 +777,6 @@
     <t>PLAFONES LED REGULABLES</t>
   </si>
   <si>
-    <t>FAROLA LED CON SENSOR</t>
-  </si>
-  <si>
     <t>BOMBILLAS LED PAR20/PAR30/PAR38</t>
   </si>
   <si>
@@ -796,9 +793,6 @@
   </si>
   <si>
     <t>TIRAS LED SOLARES</t>
-  </si>
-  <si>
-    <t>ILUMINACIÓN LED DE DISEÑO</t>
   </si>
   <si>
     <t>BOMBILLAS LED A160/A165/B125</t>
@@ -820,9 +814,6 @@
   </si>
   <si>
     <t>LÁMPARA LED SMART</t>
-  </si>
-  <si>
-    <t>APARÁTO ELECTRÓNICO SMART</t>
   </si>
   <si>
     <t>23330-TPA</t>
@@ -856,6 +847,9 @@
   </si>
   <si>
     <t>ACCESORIOS PARA CARRILES ES MAGNÉTICOS</t>
+  </si>
+  <si>
+    <t>ILUMINACIÓN DE DISEÑO</t>
   </si>
 </sst>
 </file>
@@ -1171,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5872"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B190" sqref="B190"/>
+    <sheetView tabSelected="1" topLeftCell="A4136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4173" sqref="C4173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16173,7 +16167,7 @@
         <v>27</v>
       </c>
       <c r="C943" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D943" s="5"/>
       <c r="E943" s="5"/>
@@ -16187,7 +16181,7 @@
         <v>27</v>
       </c>
       <c r="C944" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D944" s="5"/>
       <c r="E944" s="5"/>
@@ -16201,7 +16195,7 @@
         <v>27</v>
       </c>
       <c r="C945" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D945" s="5"/>
       <c r="E945" s="5"/>
@@ -16215,7 +16209,7 @@
         <v>27</v>
       </c>
       <c r="C946" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D946" s="5"/>
       <c r="E946" s="5"/>
@@ -16229,7 +16223,7 @@
         <v>27</v>
       </c>
       <c r="C947" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D947" s="5"/>
       <c r="E947" s="5"/>
@@ -16243,7 +16237,7 @@
         <v>27</v>
       </c>
       <c r="C948" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D948" s="5"/>
       <c r="E948" s="5"/>
@@ -16257,7 +16251,7 @@
         <v>27</v>
       </c>
       <c r="C949" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D949" s="5"/>
       <c r="E949" s="5"/>
@@ -16271,7 +16265,7 @@
         <v>27</v>
       </c>
       <c r="C950" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D950" s="5"/>
       <c r="E950" s="5"/>
@@ -16285,7 +16279,7 @@
         <v>27</v>
       </c>
       <c r="C951" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D951" s="5"/>
       <c r="E951" s="5"/>
@@ -16299,7 +16293,7 @@
         <v>27</v>
       </c>
       <c r="C952" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D952" s="5"/>
       <c r="E952" s="5"/>
@@ -16313,7 +16307,7 @@
         <v>27</v>
       </c>
       <c r="C953" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D953" s="5"/>
       <c r="E953" s="5"/>
@@ -16327,7 +16321,7 @@
         <v>27</v>
       </c>
       <c r="C954" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D954" s="5"/>
       <c r="E954" s="5"/>
@@ -17353,7 +17347,7 @@
         <v>27</v>
       </c>
       <c r="C1019" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D1019" s="5"/>
       <c r="E1019" s="5"/>
@@ -17367,7 +17361,7 @@
         <v>27</v>
       </c>
       <c r="C1020" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D1020" s="5"/>
       <c r="E1020" s="5"/>
@@ -17381,7 +17375,7 @@
         <v>27</v>
       </c>
       <c r="C1021" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D1021" s="5"/>
       <c r="E1021" s="5"/>
@@ -17395,7 +17389,7 @@
         <v>27</v>
       </c>
       <c r="C1022" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D1022" s="5"/>
       <c r="E1022" s="5"/>
@@ -17409,7 +17403,7 @@
         <v>27</v>
       </c>
       <c r="C1023" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D1023" s="5"/>
       <c r="E1023" s="5"/>
@@ -17423,7 +17417,7 @@
         <v>27</v>
       </c>
       <c r="C1024" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D1024" s="5"/>
       <c r="E1024" s="5"/>
@@ -30102,7 +30096,7 @@
         <v>27</v>
       </c>
       <c r="C1851" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D1851" s="5"/>
       <c r="E1851" s="5"/>
@@ -30116,7 +30110,7 @@
         <v>27</v>
       </c>
       <c r="C1852" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D1852" s="5"/>
       <c r="E1852" s="5"/>
@@ -30130,7 +30124,7 @@
         <v>27</v>
       </c>
       <c r="C1853" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D1853" s="5"/>
       <c r="E1853" s="5"/>
@@ -30144,7 +30138,7 @@
         <v>27</v>
       </c>
       <c r="C1854" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D1854" s="5"/>
       <c r="E1854" s="5"/>
@@ -30158,7 +30152,7 @@
         <v>27</v>
       </c>
       <c r="C1855" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D1855" s="5"/>
       <c r="E1855" s="5"/>
@@ -30172,7 +30166,7 @@
         <v>27</v>
       </c>
       <c r="C1856" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D1856" s="5"/>
       <c r="E1856" s="5"/>
@@ -30186,7 +30180,7 @@
         <v>27</v>
       </c>
       <c r="C1857" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D1857" s="5"/>
       <c r="E1857" s="5"/>
@@ -30200,7 +30194,7 @@
         <v>27</v>
       </c>
       <c r="C1858" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D1858" s="5"/>
       <c r="E1858" s="5"/>
@@ -30214,7 +30208,7 @@
         <v>27</v>
       </c>
       <c r="C1859" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D1859" s="5"/>
       <c r="E1859" s="5"/>
@@ -30228,7 +30222,7 @@
         <v>27</v>
       </c>
       <c r="C1860" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D1860" s="5"/>
       <c r="E1860" s="5"/>
@@ -30242,7 +30236,7 @@
         <v>27</v>
       </c>
       <c r="C1861" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D1861" s="5"/>
       <c r="E1861" s="5"/>
@@ -30256,7 +30250,7 @@
         <v>27</v>
       </c>
       <c r="C1862" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D1862" s="5"/>
       <c r="E1862" s="5"/>
@@ -30270,7 +30264,7 @@
         <v>27</v>
       </c>
       <c r="C1863" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D1863" s="5"/>
       <c r="E1863" s="5"/>
@@ -38123,7 +38117,7 @@
         <v>27</v>
       </c>
       <c r="C2366" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D2366" s="5"/>
       <c r="E2366" s="5"/>
@@ -38137,7 +38131,7 @@
         <v>27</v>
       </c>
       <c r="C2367" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D2367" s="5"/>
       <c r="E2367" s="5"/>
@@ -38151,7 +38145,7 @@
         <v>27</v>
       </c>
       <c r="C2368" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D2368" s="5"/>
       <c r="E2368" s="5"/>
@@ -38165,7 +38159,7 @@
         <v>27</v>
       </c>
       <c r="C2369" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D2369" s="5"/>
       <c r="E2369" s="5"/>
@@ -38403,7 +38397,7 @@
         <v>27</v>
       </c>
       <c r="C2386" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D2386" s="5"/>
       <c r="E2386" s="5"/>
@@ -38417,7 +38411,7 @@
         <v>27</v>
       </c>
       <c r="C2387" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D2387" s="5"/>
       <c r="E2387" s="5"/>
@@ -38431,7 +38425,7 @@
         <v>27</v>
       </c>
       <c r="C2388" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D2388" s="5"/>
       <c r="E2388" s="5"/>
@@ -38445,7 +38439,7 @@
         <v>27</v>
       </c>
       <c r="C2389" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D2389" s="5"/>
       <c r="E2389" s="5"/>
@@ -38459,7 +38453,7 @@
         <v>27</v>
       </c>
       <c r="C2390" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D2390" s="5"/>
       <c r="E2390" s="5"/>
@@ -38473,7 +38467,7 @@
         <v>27</v>
       </c>
       <c r="C2391" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D2391" s="5"/>
       <c r="E2391" s="5"/>
@@ -38487,7 +38481,7 @@
         <v>27</v>
       </c>
       <c r="C2392" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D2392" s="5"/>
       <c r="E2392" s="5"/>
@@ -38501,7 +38495,7 @@
         <v>27</v>
       </c>
       <c r="C2393" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D2393" s="5"/>
       <c r="E2393" s="5"/>
@@ -38515,7 +38509,7 @@
         <v>27</v>
       </c>
       <c r="C2394" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D2394" s="5"/>
       <c r="E2394" s="5"/>
@@ -47015,7 +47009,7 @@
         <v>27</v>
       </c>
       <c r="C2955" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D2955" s="5"/>
       <c r="E2955" s="5"/>
@@ -47029,7 +47023,7 @@
         <v>27</v>
       </c>
       <c r="C2956" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D2956" s="5"/>
       <c r="E2956" s="5"/>
@@ -47043,7 +47037,7 @@
         <v>27</v>
       </c>
       <c r="C2957" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D2957" s="5"/>
       <c r="E2957" s="5"/>
@@ -47057,7 +47051,7 @@
         <v>27</v>
       </c>
       <c r="C2958" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D2958" s="5"/>
       <c r="E2958" s="5"/>
@@ -47071,7 +47065,7 @@
         <v>27</v>
       </c>
       <c r="C2959" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D2959" s="5"/>
       <c r="E2959" s="5"/>
@@ -47085,7 +47079,7 @@
         <v>27</v>
       </c>
       <c r="C2960" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D2960" s="5"/>
       <c r="E2960" s="5"/>
@@ -49105,7 +49099,7 @@
         <v>27</v>
       </c>
       <c r="C3098" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D3098" s="5"/>
       <c r="E3098" s="5"/>
@@ -49623,7 +49617,7 @@
         <v>27</v>
       </c>
       <c r="C3135" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D3135" s="5"/>
       <c r="E3135" s="5"/>
@@ -49637,7 +49631,7 @@
         <v>27</v>
       </c>
       <c r="C3136" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D3136" s="5"/>
       <c r="E3136" s="5"/>
@@ -49651,7 +49645,7 @@
         <v>27</v>
       </c>
       <c r="C3137" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D3137" s="5"/>
       <c r="E3137" s="5"/>
@@ -49665,7 +49659,7 @@
         <v>27</v>
       </c>
       <c r="C3138" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D3138" s="5"/>
       <c r="E3138" s="5"/>
@@ -49679,7 +49673,7 @@
         <v>27</v>
       </c>
       <c r="C3139" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D3139" s="5"/>
       <c r="E3139" s="5"/>
@@ -53071,7 +53065,7 @@
         <v>27</v>
       </c>
       <c r="C3359" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D3359" s="5"/>
       <c r="E3359" s="5"/>
@@ -53101,7 +53095,7 @@
         <v>27</v>
       </c>
       <c r="C3361" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D3361" s="5"/>
       <c r="E3361" s="5"/>
@@ -59322,7 +59316,7 @@
         <v>48</v>
       </c>
       <c r="D3784" s="5" t="s">
-        <v>250</v>
+        <v>171</v>
       </c>
       <c r="E3784" s="5"/>
       <c r="F3784" s="5"/>
@@ -59338,7 +59332,7 @@
         <v>48</v>
       </c>
       <c r="D3785" s="5" t="s">
-        <v>250</v>
+        <v>171</v>
       </c>
       <c r="E3785" s="5"/>
       <c r="F3785" s="5"/>
@@ -59354,7 +59348,7 @@
         <v>48</v>
       </c>
       <c r="D3786" s="5" t="s">
-        <v>250</v>
+        <v>171</v>
       </c>
       <c r="E3786" s="5"/>
       <c r="F3786" s="5"/>
@@ -59370,7 +59364,7 @@
         <v>48</v>
       </c>
       <c r="D3787" s="5" t="s">
-        <v>250</v>
+        <v>171</v>
       </c>
       <c r="E3787" s="5"/>
       <c r="F3787" s="5"/>
@@ -59386,7 +59380,7 @@
         <v>48</v>
       </c>
       <c r="D3788" s="5" t="s">
-        <v>250</v>
+        <v>171</v>
       </c>
       <c r="E3788" s="5"/>
       <c r="F3788" s="5"/>
@@ -59402,7 +59396,7 @@
         <v>48</v>
       </c>
       <c r="D3789" s="5" t="s">
-        <v>250</v>
+        <v>171</v>
       </c>
       <c r="E3789" s="5"/>
       <c r="F3789" s="5"/>
@@ -60141,7 +60135,7 @@
         <v>12</v>
       </c>
       <c r="E3835" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F3835" s="5"/>
     </row>
@@ -60159,7 +60153,7 @@
         <v>12</v>
       </c>
       <c r="E3836" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F3836" s="5"/>
     </row>
@@ -60177,7 +60171,7 @@
         <v>12</v>
       </c>
       <c r="E3837" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F3837" s="5"/>
     </row>
@@ -60195,7 +60189,7 @@
         <v>12</v>
       </c>
       <c r="E3838" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F3838" s="5"/>
     </row>
@@ -60213,7 +60207,7 @@
         <v>12</v>
       </c>
       <c r="E3839" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F3839" s="5"/>
     </row>
@@ -60231,7 +60225,7 @@
         <v>12</v>
       </c>
       <c r="E3840" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F3840" s="5"/>
     </row>
@@ -60249,7 +60243,7 @@
         <v>12</v>
       </c>
       <c r="E3841" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F3841" s="5"/>
     </row>
@@ -60267,7 +60261,7 @@
         <v>12</v>
       </c>
       <c r="E3842" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F3842" s="5"/>
     </row>
@@ -60285,7 +60279,7 @@
         <v>12</v>
       </c>
       <c r="E3843" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F3843" s="5"/>
     </row>
@@ -60814,7 +60808,7 @@
         <v>7</v>
       </c>
       <c r="D3874" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E3874" s="5"/>
       <c r="F3874" s="5"/>
@@ -60830,7 +60824,7 @@
         <v>7</v>
       </c>
       <c r="D3875" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E3875" s="5"/>
       <c r="F3875" s="5"/>
@@ -60846,7 +60840,7 @@
         <v>7</v>
       </c>
       <c r="D3876" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E3876" s="5"/>
       <c r="F3876" s="5"/>
@@ -60862,7 +60856,7 @@
         <v>7</v>
       </c>
       <c r="D3877" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E3877" s="5"/>
       <c r="F3877" s="5"/>
@@ -60878,7 +60872,7 @@
         <v>7</v>
       </c>
       <c r="D3878" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E3878" s="5"/>
       <c r="F3878" s="5"/>
@@ -60894,7 +60888,7 @@
         <v>7</v>
       </c>
       <c r="D3879" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E3879" s="5"/>
       <c r="F3879" s="5"/>
@@ -60946,7 +60940,7 @@
         <v>7</v>
       </c>
       <c r="D3882" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E3882" s="5"/>
       <c r="F3882" s="5"/>
@@ -60962,7 +60956,7 @@
         <v>7</v>
       </c>
       <c r="D3883" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E3883" s="5"/>
       <c r="F3883" s="5"/>
@@ -60978,7 +60972,7 @@
         <v>7</v>
       </c>
       <c r="D3884" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E3884" s="5"/>
       <c r="F3884" s="5"/>
@@ -64297,7 +64291,7 @@
         <v>59</v>
       </c>
       <c r="C4100" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D4100" s="5"/>
       <c r="E4100" s="5"/>
@@ -64847,7 +64841,7 @@
         <v>60</v>
       </c>
       <c r="C4136" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D4136" s="5"/>
       <c r="E4136" s="5"/>
@@ -64867,7 +64861,7 @@
         <v>99</v>
       </c>
       <c r="E4137" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F4137" s="5"/>
     </row>
@@ -64879,7 +64873,7 @@
         <v>60</v>
       </c>
       <c r="C4138" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D4138" s="5"/>
       <c r="E4138" s="5"/>
@@ -64899,7 +64893,7 @@
         <v>99</v>
       </c>
       <c r="E4139" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F4139" s="5"/>
     </row>
@@ -64911,7 +64905,7 @@
         <v>60</v>
       </c>
       <c r="C4140" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D4140" s="5"/>
       <c r="E4140" s="5"/>
@@ -64931,7 +64925,7 @@
         <v>99</v>
       </c>
       <c r="E4141" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F4141" s="5"/>
     </row>
@@ -65415,7 +65409,7 @@
         <v>127</v>
       </c>
       <c r="C4173" s="5" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="D4173" s="5"/>
       <c r="E4173" s="5"/>
@@ -65429,7 +65423,7 @@
         <v>127</v>
       </c>
       <c r="C4174" s="5" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="D4174" s="5"/>
       <c r="E4174" s="5"/>
@@ -65443,7 +65437,7 @@
         <v>127</v>
       </c>
       <c r="C4175" s="5" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="D4175" s="5"/>
       <c r="E4175" s="5"/>
@@ -65457,7 +65451,7 @@
         <v>127</v>
       </c>
       <c r="C4176" s="5" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="D4176" s="5"/>
       <c r="E4176" s="5"/>
@@ -65471,7 +65465,7 @@
         <v>127</v>
       </c>
       <c r="C4177" s="5" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="D4177" s="5"/>
       <c r="E4177" s="5"/>
@@ -65485,7 +65479,7 @@
         <v>127</v>
       </c>
       <c r="C4178" s="5" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="D4178" s="5"/>
       <c r="E4178" s="5"/>
@@ -65499,7 +65493,7 @@
         <v>127</v>
       </c>
       <c r="C4179" s="5" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="D4179" s="5"/>
       <c r="E4179" s="5"/>
@@ -65513,7 +65507,7 @@
         <v>127</v>
       </c>
       <c r="C4180" s="5" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="D4180" s="5"/>
       <c r="E4180" s="5"/>
@@ -65527,7 +65521,7 @@
         <v>127</v>
       </c>
       <c r="C4181" s="5" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="D4181" s="5"/>
       <c r="E4181" s="5"/>
@@ -65541,7 +65535,7 @@
         <v>127</v>
       </c>
       <c r="C4182" s="5" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="D4182" s="5"/>
       <c r="E4182" s="5"/>
@@ -65555,7 +65549,7 @@
         <v>127</v>
       </c>
       <c r="C4183" s="5" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="D4183" s="5"/>
       <c r="E4183" s="5"/>
@@ -65569,7 +65563,7 @@
         <v>127</v>
       </c>
       <c r="C4184" s="5" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="D4184" s="5"/>
       <c r="E4184" s="5"/>
@@ -65583,7 +65577,7 @@
         <v>127</v>
       </c>
       <c r="C4185" s="5" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="D4185" s="5"/>
       <c r="E4185" s="5"/>
@@ -65597,7 +65591,7 @@
         <v>127</v>
       </c>
       <c r="C4186" s="5" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="D4186" s="5"/>
       <c r="E4186" s="5"/>
@@ -65611,7 +65605,7 @@
         <v>127</v>
       </c>
       <c r="C4187" s="5" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="D4187" s="5"/>
       <c r="E4187" s="5"/>
@@ -65625,7 +65619,7 @@
         <v>127</v>
       </c>
       <c r="C4188" s="5" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="D4188" s="5"/>
       <c r="E4188" s="5"/>
@@ -65639,7 +65633,7 @@
         <v>127</v>
       </c>
       <c r="C4189" s="5" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="D4189" s="5"/>
       <c r="E4189" s="5"/>
@@ -65653,7 +65647,7 @@
         <v>127</v>
       </c>
       <c r="C4190" s="5" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="D4190" s="5"/>
       <c r="E4190" s="5"/>
@@ -65667,7 +65661,7 @@
         <v>127</v>
       </c>
       <c r="C4191" s="5" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="D4191" s="5"/>
       <c r="E4191" s="5"/>
@@ -65681,7 +65675,7 @@
         <v>127</v>
       </c>
       <c r="C4192" s="5" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="D4192" s="5"/>
       <c r="E4192" s="5"/>
@@ -66085,7 +66079,7 @@
         <v>76</v>
       </c>
       <c r="G4215" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4216" spans="1:7" x14ac:dyDescent="0.25">
@@ -66108,7 +66102,7 @@
         <v>76</v>
       </c>
       <c r="G4216" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4217" spans="1:7" x14ac:dyDescent="0.25">
@@ -66131,7 +66125,7 @@
         <v>76</v>
       </c>
       <c r="G4217" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4218" spans="1:7" x14ac:dyDescent="0.25">
@@ -66154,7 +66148,7 @@
         <v>76</v>
       </c>
       <c r="G4218" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4219" spans="1:7" x14ac:dyDescent="0.25">
@@ -66177,7 +66171,7 @@
         <v>76</v>
       </c>
       <c r="G4219" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4220" spans="1:7" x14ac:dyDescent="0.25">
@@ -66200,7 +66194,7 @@
         <v>76</v>
       </c>
       <c r="G4220" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4221" spans="1:7" x14ac:dyDescent="0.25">
@@ -66223,7 +66217,7 @@
         <v>76</v>
       </c>
       <c r="G4221" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4222" spans="1:7" x14ac:dyDescent="0.25">
@@ -66332,7 +66326,7 @@
         <v>102</v>
       </c>
       <c r="C4229" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D4229" s="5"/>
       <c r="E4229" s="5"/>
@@ -66346,7 +66340,7 @@
         <v>127</v>
       </c>
       <c r="C4230" s="5" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="D4230" s="5"/>
       <c r="E4230" s="5"/>
@@ -67070,7 +67064,7 @@
         <v>59</v>
       </c>
       <c r="C4278" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D4278" s="5"/>
       <c r="E4278" s="5"/>
@@ -67084,7 +67078,7 @@
         <v>59</v>
       </c>
       <c r="C4279" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D4279" s="5"/>
       <c r="E4279" s="5"/>
@@ -67098,7 +67092,7 @@
         <v>59</v>
       </c>
       <c r="C4280" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D4280" s="5"/>
       <c r="E4280" s="5"/>
@@ -67112,7 +67106,7 @@
         <v>59</v>
       </c>
       <c r="C4281" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D4281" s="5"/>
       <c r="E4281" s="5"/>
@@ -67126,7 +67120,7 @@
         <v>59</v>
       </c>
       <c r="C4282" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D4282" s="5"/>
       <c r="E4282" s="5"/>
@@ -67140,7 +67134,7 @@
         <v>59</v>
       </c>
       <c r="C4283" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D4283" s="5"/>
       <c r="E4283" s="5"/>
@@ -67154,7 +67148,7 @@
         <v>59</v>
       </c>
       <c r="C4284" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D4284" s="5"/>
       <c r="E4284" s="5"/>
@@ -67168,7 +67162,7 @@
         <v>59</v>
       </c>
       <c r="C4285" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D4285" s="5"/>
       <c r="E4285" s="5"/>
@@ -67182,7 +67176,7 @@
         <v>59</v>
       </c>
       <c r="C4286" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D4286" s="5"/>
       <c r="E4286" s="5"/>
@@ -67196,7 +67190,7 @@
         <v>59</v>
       </c>
       <c r="C4287" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D4287" s="5"/>
       <c r="E4287" s="5"/>
@@ -67210,7 +67204,7 @@
         <v>59</v>
       </c>
       <c r="C4288" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D4288" s="5"/>
       <c r="E4288" s="5"/>
@@ -67224,7 +67218,7 @@
         <v>59</v>
       </c>
       <c r="C4289" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D4289" s="5"/>
       <c r="E4289" s="5"/>
@@ -67238,7 +67232,7 @@
         <v>59</v>
       </c>
       <c r="C4290" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D4290" s="5"/>
       <c r="E4290" s="5"/>
@@ -67252,7 +67246,7 @@
         <v>59</v>
       </c>
       <c r="C4291" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D4291" s="5"/>
       <c r="E4291" s="5"/>
@@ -67610,7 +67604,7 @@
         <v>76</v>
       </c>
       <c r="G4315" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H4315" s="7" t="s">
         <v>9</v>
@@ -71608,7 +71602,7 @@
         <v>80</v>
       </c>
       <c r="D4564" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E4564" s="5"/>
       <c r="F4564" s="5"/>
@@ -71624,7 +71618,7 @@
         <v>80</v>
       </c>
       <c r="D4565" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E4565" s="5"/>
       <c r="F4565" s="5"/>
@@ -71640,7 +71634,7 @@
         <v>80</v>
       </c>
       <c r="D4566" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E4566" s="5"/>
       <c r="F4566" s="5"/>
@@ -72110,7 +72104,7 @@
         <v>80</v>
       </c>
       <c r="D4593" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E4593" s="5"/>
       <c r="F4593" s="5"/>
@@ -72126,7 +72120,7 @@
         <v>80</v>
       </c>
       <c r="D4594" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E4594" s="5"/>
       <c r="F4594" s="5"/>
@@ -72142,7 +72136,7 @@
         <v>80</v>
       </c>
       <c r="D4595" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E4595" s="5"/>
       <c r="F4595" s="5"/>
@@ -76881,7 +76875,7 @@
         <v>76</v>
       </c>
       <c r="G4877" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H4877" s="7" t="s">
         <v>9</v>
@@ -79533,7 +79527,7 @@
         <v>95</v>
       </c>
       <c r="C5048" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D5048" s="5"/>
       <c r="E5048" s="5"/>
@@ -79561,7 +79555,7 @@
         <v>95</v>
       </c>
       <c r="C5050" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D5050" s="5"/>
       <c r="E5050" s="5"/>
@@ -79589,7 +79583,7 @@
         <v>95</v>
       </c>
       <c r="C5052" s="5" t="s">
-        <v>265</v>
+        <v>202</v>
       </c>
       <c r="D5052" s="5"/>
       <c r="E5052" s="5"/>
@@ -81129,7 +81123,7 @@
     </row>
     <row r="5153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5153" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B5153" s="5" t="s">
         <v>180</v>
@@ -81147,7 +81141,7 @@
     </row>
     <row r="5154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5154" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B5154" s="5" t="s">
         <v>102</v>
@@ -81161,7 +81155,7 @@
     </row>
     <row r="5155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5155" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B5155" s="5" t="s">
         <v>180</v>
@@ -81177,7 +81171,7 @@
     </row>
     <row r="5156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5156" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B5156" s="5" t="s">
         <v>180</v>
@@ -81193,7 +81187,7 @@
     </row>
     <row r="5157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5157" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B5157" s="5" t="s">
         <v>68</v>
@@ -81209,7 +81203,7 @@
     </row>
     <row r="5158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5158" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B5158" s="5" t="s">
         <v>68</v>
@@ -81225,7 +81219,7 @@
     </row>
     <row r="5159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5159" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B5159" s="5" t="s">
         <v>68</v>
@@ -81241,7 +81235,7 @@
     </row>
     <row r="5160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5160" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B5160" s="5" t="s">
         <v>68</v>
